--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="398">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -925,6 +925,9 @@
     <t>['41', '61', '88']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1052,9 +1055,6 @@
   </si>
   <si>
     <t>['36']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['45', '90+2', '90+13']</t>
@@ -1569,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ4">
         <v>0.9399999999999999</v>
@@ -2858,7 +2858,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -3270,7 +3270,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3682,7 +3682,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -4094,7 +4094,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4300,7 +4300,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4506,7 +4506,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5742,7 +5742,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6360,7 +6360,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6772,7 +6772,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6978,7 +6978,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -7184,7 +7184,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -8008,7 +8008,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -8214,7 +8214,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -9450,7 +9450,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9862,7 +9862,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -10068,7 +10068,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10274,7 +10274,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11510,7 +11510,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12952,7 +12952,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13442,7 +13442,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13776,7 +13776,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -14188,7 +14188,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14806,7 +14806,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -16660,7 +16660,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17278,7 +17278,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17562,7 +17562,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ78">
         <v>0.72</v>
@@ -18102,7 +18102,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -18308,7 +18308,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -19338,7 +19338,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -20240,7 +20240,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ91">
         <v>1.56</v>
@@ -20368,7 +20368,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20986,7 +20986,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21604,7 +21604,7 @@
         <v>117</v>
       </c>
       <c r="P98" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -22016,7 +22016,7 @@
         <v>101</v>
       </c>
       <c r="P100" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -22222,7 +22222,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -24360,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ111">
         <v>1.06</v>
@@ -24694,7 +24694,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -25106,7 +25106,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25312,7 +25312,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -26548,7 +26548,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -27166,7 +27166,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27578,7 +27578,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -28814,7 +28814,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -29226,7 +29226,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29638,7 +29638,7 @@
         <v>101</v>
       </c>
       <c r="P137" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29844,7 +29844,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -30256,7 +30256,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30462,7 +30462,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30668,7 +30668,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30874,7 +30874,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31492,7 +31492,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -32110,7 +32110,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32394,7 +32394,7 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -34660,7 +34660,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ161">
         <v>1.56</v>
@@ -36024,7 +36024,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36230,7 +36230,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -38496,7 +38496,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -39398,7 +39398,7 @@
         <v>0.38</v>
       </c>
       <c r="AP184">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ184">
         <v>0.61</v>
@@ -39732,7 +39732,7 @@
         <v>101</v>
       </c>
       <c r="P186" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -40968,7 +40968,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -42410,7 +42410,7 @@
         <v>193</v>
       </c>
       <c r="P199" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q199">
         <v>2.3</v>
@@ -42488,7 +42488,7 @@
         <v>0.11</v>
       </c>
       <c r="AP199">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ199">
         <v>0.5600000000000001</v>
@@ -44960,7 +44960,7 @@
         <v>0.6</v>
       </c>
       <c r="AP211">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ211">
         <v>0.67</v>
@@ -49904,7 +49904,7 @@
         <v>0.42</v>
       </c>
       <c r="AP235">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ235">
         <v>0.39</v>
@@ -50856,7 +50856,7 @@
         <v>101</v>
       </c>
       <c r="P240" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q240">
         <v>6.5</v>
@@ -54230,7 +54230,7 @@
         <v>0.75</v>
       </c>
       <c r="AP256">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ256">
         <v>0.83</v>
@@ -58350,7 +58350,7 @@
         <v>0.42</v>
       </c>
       <c r="AP276">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ276">
         <v>0.44</v>
@@ -59714,7 +59714,7 @@
         <v>263</v>
       </c>
       <c r="P283" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q283">
         <v>2.4</v>
@@ -61028,7 +61028,7 @@
         <v>1.07</v>
       </c>
       <c r="AP289">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ289">
         <v>1.06</v>
@@ -67002,7 +67002,7 @@
         <v>0.8</v>
       </c>
       <c r="AP318">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ318">
         <v>0.89</v>
@@ -68984,7 +68984,7 @@
         <v>101</v>
       </c>
       <c r="P328" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q328">
         <v>2.75</v>
@@ -69268,7 +69268,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP329">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ329">
         <v>0.72</v>
@@ -71044,7 +71044,7 @@
         <v>101</v>
       </c>
       <c r="P338" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q338">
         <v>3</v>
@@ -72770,7 +72770,7 @@
         <v>1.41</v>
       </c>
       <c r="AP346">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ346">
         <v>1.33</v>
@@ -75939,6 +75939,212 @@
       </c>
       <c r="BP361">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>7380700</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45611.66666666666</v>
+      </c>
+      <c r="F362">
+        <v>37</v>
+      </c>
+      <c r="G362" t="s">
+        <v>72</v>
+      </c>
+      <c r="H362" t="s">
+        <v>89</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>1</v>
+      </c>
+      <c r="N362">
+        <v>2</v>
+      </c>
+      <c r="O362" t="s">
+        <v>303</v>
+      </c>
+      <c r="P362" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q362">
+        <v>3.4</v>
+      </c>
+      <c r="R362">
+        <v>1.8</v>
+      </c>
+      <c r="S362">
+        <v>4.33</v>
+      </c>
+      <c r="T362">
+        <v>1.65</v>
+      </c>
+      <c r="U362">
+        <v>2.1</v>
+      </c>
+      <c r="V362">
+        <v>3.95</v>
+      </c>
+      <c r="W362">
+        <v>1.2</v>
+      </c>
+      <c r="X362">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y362">
+        <v>1.03</v>
+      </c>
+      <c r="Z362">
+        <v>2.4</v>
+      </c>
+      <c r="AA362">
+        <v>2.75</v>
+      </c>
+      <c r="AB362">
+        <v>3.5</v>
+      </c>
+      <c r="AC362">
+        <v>1.11</v>
+      </c>
+      <c r="AD362">
+        <v>5.5</v>
+      </c>
+      <c r="AE362">
+        <v>1.6</v>
+      </c>
+      <c r="AF362">
+        <v>2.28</v>
+      </c>
+      <c r="AG362">
+        <v>3.4</v>
+      </c>
+      <c r="AH362">
+        <v>1.33</v>
+      </c>
+      <c r="AI362">
+        <v>2.5</v>
+      </c>
+      <c r="AJ362">
+        <v>1.5</v>
+      </c>
+      <c r="AK362">
+        <v>1.4</v>
+      </c>
+      <c r="AL362">
+        <v>1.36</v>
+      </c>
+      <c r="AM362">
+        <v>1.45</v>
+      </c>
+      <c r="AN362">
+        <v>1.94</v>
+      </c>
+      <c r="AO362">
+        <v>1.11</v>
+      </c>
+      <c r="AP362">
+        <v>1.89</v>
+      </c>
+      <c r="AQ362">
+        <v>1.11</v>
+      </c>
+      <c r="AR362">
+        <v>1.58</v>
+      </c>
+      <c r="AS362">
+        <v>1.09</v>
+      </c>
+      <c r="AT362">
+        <v>2.67</v>
+      </c>
+      <c r="AU362">
+        <v>3</v>
+      </c>
+      <c r="AV362">
+        <v>3</v>
+      </c>
+      <c r="AW362">
+        <v>12</v>
+      </c>
+      <c r="AX362">
+        <v>5</v>
+      </c>
+      <c r="AY362">
+        <v>21</v>
+      </c>
+      <c r="AZ362">
+        <v>8</v>
+      </c>
+      <c r="BA362">
+        <v>4</v>
+      </c>
+      <c r="BB362">
+        <v>8</v>
+      </c>
+      <c r="BC362">
+        <v>12</v>
+      </c>
+      <c r="BD362">
+        <v>1.59</v>
+      </c>
+      <c r="BE362">
+        <v>8.5</v>
+      </c>
+      <c r="BF362">
+        <v>2.91</v>
+      </c>
+      <c r="BG362">
+        <v>1.16</v>
+      </c>
+      <c r="BH362">
+        <v>4.5</v>
+      </c>
+      <c r="BI362">
+        <v>1.38</v>
+      </c>
+      <c r="BJ362">
+        <v>2.8</v>
+      </c>
+      <c r="BK362">
+        <v>1.83</v>
+      </c>
+      <c r="BL362">
+        <v>2.17</v>
+      </c>
+      <c r="BM362">
+        <v>1.95</v>
+      </c>
+      <c r="BN362">
+        <v>1.85</v>
+      </c>
+      <c r="BO362">
+        <v>2.65</v>
+      </c>
+      <c r="BP362">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -928,6 +928,9 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1208,6 +1211,9 @@
   </si>
   <si>
     <t>['38', '51', '53', '65']</t>
+  </si>
+  <si>
+    <t>['6', '16', '23', '76']</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP362"/>
+  <dimension ref="A1:BP364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2112,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ3">
         <v>0.61</v>
@@ -2858,7 +2864,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2936,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -3145,7 +3151,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3270,7 +3276,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3682,7 +3688,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -4094,7 +4100,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4300,7 +4306,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4506,7 +4512,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5742,7 +5748,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6360,7 +6366,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6772,7 +6778,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6978,7 +6984,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -7059,7 +7065,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -7184,7 +7190,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -8008,7 +8014,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -8214,7 +8220,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8292,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -9322,7 +9328,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ38">
         <v>1.56</v>
@@ -9450,7 +9456,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9862,7 +9868,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -10068,7 +10074,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10274,7 +10280,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11510,7 +11516,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11797,7 +11803,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -12412,7 +12418,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ53">
         <v>0.83</v>
@@ -12618,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ54">
         <v>0.89</v>
@@ -12952,7 +12958,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13776,7 +13782,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -14188,7 +14194,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14806,7 +14812,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15711,7 +15717,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -15914,7 +15920,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ70">
         <v>1.11</v>
@@ -16660,7 +16666,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17278,7 +17284,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -18102,7 +18108,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -18308,7 +18314,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18386,7 +18392,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ82">
         <v>1.56</v>
@@ -18592,7 +18598,7 @@
         <v>0.25</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ83">
         <v>0.39</v>
@@ -19338,7 +19344,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19831,7 +19837,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
         <v>1.5</v>
@@ -20034,7 +20040,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ90">
         <v>1.06</v>
@@ -20368,7 +20374,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20986,7 +20992,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21604,7 +21610,7 @@
         <v>117</v>
       </c>
       <c r="P98" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -22016,7 +22022,7 @@
         <v>101</v>
       </c>
       <c r="P100" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -22222,7 +22228,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22506,7 +22512,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ102">
         <v>0.72</v>
@@ -22921,7 +22927,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -24694,7 +24700,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24981,7 +24987,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -25106,7 +25112,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25312,7 +25318,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -26008,7 +26014,7 @@
         <v>0.6</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ119">
         <v>0.83</v>
@@ -26548,7 +26554,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -27166,7 +27172,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27578,7 +27584,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -28068,7 +28074,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ129">
         <v>1.11</v>
@@ -28814,7 +28820,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -29226,7 +29232,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29638,7 +29644,7 @@
         <v>101</v>
       </c>
       <c r="P137" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29844,7 +29850,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29922,7 +29928,7 @@
         <v>0.33</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ138">
         <v>0.67</v>
@@ -30256,7 +30262,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30462,7 +30468,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30668,7 +30674,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30874,7 +30880,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30952,7 +30958,7 @@
         <v>0</v>
       </c>
       <c r="AP143">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ143">
         <v>0.44</v>
@@ -32110,7 +32116,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32397,7 +32403,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32806,7 +32812,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ152">
         <v>1.06</v>
@@ -33964,7 +33970,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34045,7 +34051,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR158">
         <v>1.72</v>
@@ -34170,7 +34176,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -35896,7 +35902,7 @@
         <v>0.14</v>
       </c>
       <c r="AP167">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ167">
         <v>0.44</v>
@@ -36024,7 +36030,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36230,7 +36236,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -37466,7 +37472,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37672,7 +37678,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37878,7 +37884,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -38084,7 +38090,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38496,7 +38502,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38986,7 +38992,7 @@
         <v>0.13</v>
       </c>
       <c r="AP182">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ182">
         <v>0.5600000000000001</v>
@@ -39526,7 +39532,7 @@
         <v>209</v>
       </c>
       <c r="P185" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39604,10 +39610,10 @@
         <v>0.89</v>
       </c>
       <c r="AP185">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR185">
         <v>1.53</v>
@@ -39732,7 +39738,7 @@
         <v>101</v>
       </c>
       <c r="P186" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39938,7 +39944,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -40556,7 +40562,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40968,7 +40974,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -41174,7 +41180,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q193">
         <v>2.2</v>
@@ -42204,7 +42210,7 @@
         <v>219</v>
       </c>
       <c r="P198" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42410,7 +42416,7 @@
         <v>193</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q199">
         <v>2.3</v>
@@ -42697,7 +42703,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ200">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR200">
         <v>1.57</v>
@@ -43106,7 +43112,7 @@
         <v>0.89</v>
       </c>
       <c r="AP202">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ202">
         <v>0.72</v>
@@ -43234,7 +43240,7 @@
         <v>101</v>
       </c>
       <c r="P203" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43646,7 +43652,7 @@
         <v>151</v>
       </c>
       <c r="P205" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43930,7 +43936,7 @@
         <v>0.33</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ206">
         <v>0.61</v>
@@ -44058,7 +44064,7 @@
         <v>101</v>
       </c>
       <c r="P207" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44264,7 +44270,7 @@
         <v>96</v>
       </c>
       <c r="P208" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q208">
         <v>3.4</v>
@@ -44548,7 +44554,7 @@
         <v>0.4</v>
       </c>
       <c r="AP209">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ209">
         <v>0.5600000000000001</v>
@@ -44754,7 +44760,7 @@
         <v>0.45</v>
       </c>
       <c r="AP210">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ210">
         <v>0.5</v>
@@ -44882,7 +44888,7 @@
         <v>226</v>
       </c>
       <c r="P211" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -45088,7 +45094,7 @@
         <v>184</v>
       </c>
       <c r="P212" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q212">
         <v>2.5</v>
@@ -45706,7 +45712,7 @@
         <v>101</v>
       </c>
       <c r="P215" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q215">
         <v>3.4</v>
@@ -47023,7 +47029,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ221">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR221">
         <v>1.27</v>
@@ -48384,7 +48390,7 @@
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q228">
         <v>1.95</v>
@@ -48668,7 +48674,7 @@
         <v>0.82</v>
       </c>
       <c r="AP229">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ229">
         <v>0.67</v>
@@ -49002,7 +49008,7 @@
         <v>184</v>
       </c>
       <c r="P231" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q231">
         <v>3.4</v>
@@ -49286,7 +49292,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ232">
         <v>1</v>
@@ -49620,7 +49626,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q234">
         <v>2.1</v>
@@ -50856,7 +50862,7 @@
         <v>101</v>
       </c>
       <c r="P240" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q240">
         <v>6.5</v>
@@ -51062,7 +51068,7 @@
         <v>239</v>
       </c>
       <c r="P241" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q241">
         <v>3.75</v>
@@ -51268,7 +51274,7 @@
         <v>101</v>
       </c>
       <c r="P242" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q242">
         <v>3.2</v>
@@ -51886,7 +51892,7 @@
         <v>242</v>
       </c>
       <c r="P245" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q245">
         <v>3</v>
@@ -52173,7 +52179,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ246">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR246">
         <v>1.34</v>
@@ -52298,7 +52304,7 @@
         <v>101</v>
       </c>
       <c r="P247" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q247">
         <v>2.75</v>
@@ -52788,7 +52794,7 @@
         <v>1</v>
       </c>
       <c r="AP249">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ249">
         <v>1.06</v>
@@ -52916,7 +52922,7 @@
         <v>244</v>
       </c>
       <c r="P250" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q250">
         <v>3</v>
@@ -53122,7 +53128,7 @@
         <v>167</v>
       </c>
       <c r="P251" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -54848,7 +54854,7 @@
         <v>0.46</v>
       </c>
       <c r="AP259">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ259">
         <v>0.39</v>
@@ -55388,7 +55394,7 @@
         <v>254</v>
       </c>
       <c r="P262" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q262">
         <v>2.38</v>
@@ -55469,7 +55475,7 @@
         <v>2</v>
       </c>
       <c r="AQ262">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR262">
         <v>1.42</v>
@@ -55594,7 +55600,7 @@
         <v>255</v>
       </c>
       <c r="P263" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -55878,7 +55884,7 @@
         <v>1.17</v>
       </c>
       <c r="AP264">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ264">
         <v>1.17</v>
@@ -56830,7 +56836,7 @@
         <v>101</v>
       </c>
       <c r="P269" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57036,7 +57042,7 @@
         <v>101</v>
       </c>
       <c r="P270" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -58478,7 +58484,7 @@
         <v>101</v>
       </c>
       <c r="P277" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -59383,7 +59389,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ281">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR281">
         <v>1.69</v>
@@ -59714,7 +59720,7 @@
         <v>263</v>
       </c>
       <c r="P283" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q283">
         <v>2.4</v>
@@ -60616,7 +60622,7 @@
         <v>0.64</v>
       </c>
       <c r="AP287">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ287">
         <v>0.5</v>
@@ -60950,7 +60956,7 @@
         <v>267</v>
       </c>
       <c r="P289" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q289">
         <v>2.63</v>
@@ -61362,7 +61368,7 @@
         <v>269</v>
       </c>
       <c r="P291" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61646,7 +61652,7 @@
         <v>1.57</v>
       </c>
       <c r="AP292">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ292">
         <v>1.56</v>
@@ -62804,7 +62810,7 @@
         <v>271</v>
       </c>
       <c r="P298" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q298">
         <v>3.75</v>
@@ -63010,7 +63016,7 @@
         <v>272</v>
       </c>
       <c r="P299" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q299">
         <v>3.4</v>
@@ -63422,7 +63428,7 @@
         <v>274</v>
       </c>
       <c r="P301" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q301">
         <v>3.2</v>
@@ -63500,7 +63506,7 @@
         <v>1.4</v>
       </c>
       <c r="AP301">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ301">
         <v>1.33</v>
@@ -63628,7 +63634,7 @@
         <v>275</v>
       </c>
       <c r="P302" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q302">
         <v>3.5</v>
@@ -64040,7 +64046,7 @@
         <v>276</v>
       </c>
       <c r="P304" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q304">
         <v>2.38</v>
@@ -65276,7 +65282,7 @@
         <v>280</v>
       </c>
       <c r="P310" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q310">
         <v>4.33</v>
@@ -65482,7 +65488,7 @@
         <v>264</v>
       </c>
       <c r="P311" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q311">
         <v>2.2</v>
@@ -65688,7 +65694,7 @@
         <v>281</v>
       </c>
       <c r="P312" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q312">
         <v>2.4</v>
@@ -65769,7 +65775,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ312">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR312">
         <v>1.66</v>
@@ -65894,7 +65900,7 @@
         <v>254</v>
       </c>
       <c r="P313" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q313">
         <v>3.2</v>
@@ -66178,7 +66184,7 @@
         <v>1.13</v>
       </c>
       <c r="AP314">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ314">
         <v>0.9399999999999999</v>
@@ -66306,7 +66312,7 @@
         <v>101</v>
       </c>
       <c r="P315" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q315">
         <v>2.88</v>
@@ -66718,7 +66724,7 @@
         <v>97</v>
       </c>
       <c r="P317" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -67542,7 +67548,7 @@
         <v>101</v>
       </c>
       <c r="P321" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q321">
         <v>3.4</v>
@@ -67623,7 +67629,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ321">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR321">
         <v>1.48</v>
@@ -68238,7 +68244,7 @@
         <v>1.06</v>
       </c>
       <c r="AP324">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ324">
         <v>0.9399999999999999</v>
@@ -68984,7 +68990,7 @@
         <v>101</v>
       </c>
       <c r="P328" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q328">
         <v>2.75</v>
@@ -70632,7 +70638,7 @@
         <v>101</v>
       </c>
       <c r="P336" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -71044,7 +71050,7 @@
         <v>101</v>
       </c>
       <c r="P338" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q338">
         <v>3</v>
@@ -71456,7 +71462,7 @@
         <v>101</v>
       </c>
       <c r="P340" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q340">
         <v>2.5</v>
@@ -71534,7 +71540,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP340">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ340">
         <v>1.06</v>
@@ -71662,7 +71668,7 @@
         <v>101</v>
       </c>
       <c r="P341" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q341">
         <v>4</v>
@@ -72074,7 +72080,7 @@
         <v>101</v>
       </c>
       <c r="P343" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q343">
         <v>4</v>
@@ -72898,7 +72904,7 @@
         <v>298</v>
       </c>
       <c r="P347" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q347">
         <v>3.2</v>
@@ -73104,7 +73110,7 @@
         <v>152</v>
       </c>
       <c r="P348" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q348">
         <v>3.25</v>
@@ -73388,7 +73394,7 @@
         <v>0.76</v>
       </c>
       <c r="AP349">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ349">
         <v>0.72</v>
@@ -74009,7 +74015,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ352">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR352">
         <v>1.47</v>
@@ -74212,7 +74218,7 @@
         <v>1.06</v>
       </c>
       <c r="AP353">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AQ353">
         <v>1.17</v>
@@ -75164,7 +75170,7 @@
         <v>101</v>
       </c>
       <c r="P358" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q358">
         <v>4</v>
@@ -75370,7 +75376,7 @@
         <v>302</v>
       </c>
       <c r="P359" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q359">
         <v>2</v>
@@ -75782,7 +75788,7 @@
         <v>300</v>
       </c>
       <c r="P361" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q361">
         <v>5</v>
@@ -76081,31 +76087,31 @@
         <v>2.67</v>
       </c>
       <c r="AU362">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV362">
         <v>3</v>
       </c>
       <c r="AW362">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX362">
         <v>5</v>
       </c>
       <c r="AY362">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ362">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA362">
         <v>4</v>
       </c>
       <c r="BB362">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC362">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD362">
         <v>1.59</v>
@@ -76145,6 +76151,418 @@
       </c>
       <c r="BP362">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="363" spans="1:68">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>7380696</v>
+      </c>
+      <c r="C363" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" t="s">
+        <v>69</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45612.70833333334</v>
+      </c>
+      <c r="F363">
+        <v>37</v>
+      </c>
+      <c r="G363" t="s">
+        <v>71</v>
+      </c>
+      <c r="H363" t="s">
+        <v>85</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363">
+        <v>1</v>
+      </c>
+      <c r="N363">
+        <v>2</v>
+      </c>
+      <c r="O363" t="s">
+        <v>304</v>
+      </c>
+      <c r="P363" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q363">
+        <v>2.1</v>
+      </c>
+      <c r="R363">
+        <v>2.1</v>
+      </c>
+      <c r="S363">
+        <v>7</v>
+      </c>
+      <c r="T363">
+        <v>1.45</v>
+      </c>
+      <c r="U363">
+        <v>2.55</v>
+      </c>
+      <c r="V363">
+        <v>3.2</v>
+      </c>
+      <c r="W363">
+        <v>1.3</v>
+      </c>
+      <c r="X363">
+        <v>7.8</v>
+      </c>
+      <c r="Y363">
+        <v>1.06</v>
+      </c>
+      <c r="Z363">
+        <v>1.43</v>
+      </c>
+      <c r="AA363">
+        <v>4</v>
+      </c>
+      <c r="AB363">
+        <v>8</v>
+      </c>
+      <c r="AC363">
+        <v>1.07</v>
+      </c>
+      <c r="AD363">
+        <v>8</v>
+      </c>
+      <c r="AE363">
+        <v>1.4</v>
+      </c>
+      <c r="AF363">
+        <v>2.9</v>
+      </c>
+      <c r="AG363">
+        <v>2.3</v>
+      </c>
+      <c r="AH363">
+        <v>1.53</v>
+      </c>
+      <c r="AI363">
+        <v>2.25</v>
+      </c>
+      <c r="AJ363">
+        <v>1.57</v>
+      </c>
+      <c r="AK363">
+        <v>1.1</v>
+      </c>
+      <c r="AL363">
+        <v>1.2</v>
+      </c>
+      <c r="AM363">
+        <v>2.45</v>
+      </c>
+      <c r="AN363">
+        <v>1.94</v>
+      </c>
+      <c r="AO363">
+        <v>0.89</v>
+      </c>
+      <c r="AP363">
+        <v>1.89</v>
+      </c>
+      <c r="AQ363">
+        <v>0.89</v>
+      </c>
+      <c r="AR363">
+        <v>1.54</v>
+      </c>
+      <c r="AS363">
+        <v>1.23</v>
+      </c>
+      <c r="AT363">
+        <v>2.77</v>
+      </c>
+      <c r="AU363">
+        <v>13</v>
+      </c>
+      <c r="AV363">
+        <v>2</v>
+      </c>
+      <c r="AW363">
+        <v>17</v>
+      </c>
+      <c r="AX363">
+        <v>3</v>
+      </c>
+      <c r="AY363">
+        <v>31</v>
+      </c>
+      <c r="AZ363">
+        <v>5</v>
+      </c>
+      <c r="BA363">
+        <v>10</v>
+      </c>
+      <c r="BB363">
+        <v>1</v>
+      </c>
+      <c r="BC363">
+        <v>11</v>
+      </c>
+      <c r="BD363">
+        <v>1.62</v>
+      </c>
+      <c r="BE363">
+        <v>8.1</v>
+      </c>
+      <c r="BF363">
+        <v>2.86</v>
+      </c>
+      <c r="BG363">
+        <v>1.25</v>
+      </c>
+      <c r="BH363">
+        <v>3.58</v>
+      </c>
+      <c r="BI363">
+        <v>1.45</v>
+      </c>
+      <c r="BJ363">
+        <v>2.55</v>
+      </c>
+      <c r="BK363">
+        <v>1.83</v>
+      </c>
+      <c r="BL363">
+        <v>1.96</v>
+      </c>
+      <c r="BM363">
+        <v>2.21</v>
+      </c>
+      <c r="BN363">
+        <v>1.59</v>
+      </c>
+      <c r="BO363">
+        <v>2.9</v>
+      </c>
+      <c r="BP363">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="364" spans="1:68">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>7380701</v>
+      </c>
+      <c r="C364" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" t="s">
+        <v>69</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45612.79166666666</v>
+      </c>
+      <c r="F364">
+        <v>37</v>
+      </c>
+      <c r="G364" t="s">
+        <v>75</v>
+      </c>
+      <c r="H364" t="s">
+        <v>88</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>3</v>
+      </c>
+      <c r="K364">
+        <v>3</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+      <c r="M364">
+        <v>4</v>
+      </c>
+      <c r="N364">
+        <v>4</v>
+      </c>
+      <c r="O364" t="s">
+        <v>101</v>
+      </c>
+      <c r="P364" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q364">
+        <v>4.5</v>
+      </c>
+      <c r="R364">
+        <v>2.1</v>
+      </c>
+      <c r="S364">
+        <v>2.63</v>
+      </c>
+      <c r="T364">
+        <v>1.5</v>
+      </c>
+      <c r="U364">
+        <v>2.4</v>
+      </c>
+      <c r="V364">
+        <v>3.25</v>
+      </c>
+      <c r="W364">
+        <v>1.3</v>
+      </c>
+      <c r="X364">
+        <v>7.5</v>
+      </c>
+      <c r="Y364">
+        <v>1.07</v>
+      </c>
+      <c r="Z364">
+        <v>3.8</v>
+      </c>
+      <c r="AA364">
+        <v>3.4</v>
+      </c>
+      <c r="AB364">
+        <v>1.95</v>
+      </c>
+      <c r="AC364">
+        <v>1.08</v>
+      </c>
+      <c r="AD364">
+        <v>7.5</v>
+      </c>
+      <c r="AE364">
+        <v>1.42</v>
+      </c>
+      <c r="AF364">
+        <v>2.8</v>
+      </c>
+      <c r="AG364">
+        <v>2.08</v>
+      </c>
+      <c r="AH364">
+        <v>1.73</v>
+      </c>
+      <c r="AI364">
+        <v>1.91</v>
+      </c>
+      <c r="AJ364">
+        <v>1.8</v>
+      </c>
+      <c r="AK364">
+        <v>1.77</v>
+      </c>
+      <c r="AL364">
+        <v>1.28</v>
+      </c>
+      <c r="AM364">
+        <v>1.25</v>
+      </c>
+      <c r="AN364">
+        <v>2</v>
+      </c>
+      <c r="AO364">
+        <v>1</v>
+      </c>
+      <c r="AP364">
+        <v>1.89</v>
+      </c>
+      <c r="AQ364">
+        <v>1.11</v>
+      </c>
+      <c r="AR364">
+        <v>1.46</v>
+      </c>
+      <c r="AS364">
+        <v>1.13</v>
+      </c>
+      <c r="AT364">
+        <v>2.59</v>
+      </c>
+      <c r="AU364">
+        <v>6</v>
+      </c>
+      <c r="AV364">
+        <v>11</v>
+      </c>
+      <c r="AW364">
+        <v>18</v>
+      </c>
+      <c r="AX364">
+        <v>6</v>
+      </c>
+      <c r="AY364">
+        <v>26</v>
+      </c>
+      <c r="AZ364">
+        <v>17</v>
+      </c>
+      <c r="BA364">
+        <v>4</v>
+      </c>
+      <c r="BB364">
+        <v>3</v>
+      </c>
+      <c r="BC364">
+        <v>7</v>
+      </c>
+      <c r="BD364">
+        <v>2</v>
+      </c>
+      <c r="BE364">
+        <v>7.7</v>
+      </c>
+      <c r="BF364">
+        <v>2.13</v>
+      </c>
+      <c r="BG364">
+        <v>1.18</v>
+      </c>
+      <c r="BH364">
+        <v>4.5</v>
+      </c>
+      <c r="BI364">
+        <v>1.36</v>
+      </c>
+      <c r="BJ364">
+        <v>2.88</v>
+      </c>
+      <c r="BK364">
+        <v>2</v>
+      </c>
+      <c r="BL364">
+        <v>2.16</v>
+      </c>
+      <c r="BM364">
+        <v>1.99</v>
+      </c>
+      <c r="BN364">
+        <v>1.72</v>
+      </c>
+      <c r="BO364">
+        <v>2.55</v>
+      </c>
+      <c r="BP364">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1233,6 +1233,9 @@
   <si>
     <t>['16', '64']</t>
   </si>
+  <si>
+    <t>['60', '89', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1593,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP369"/>
+  <dimension ref="A1:BP371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1930,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ2">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2345,7 +2348,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ4">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3166,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ8">
         <v>1.11</v>
@@ -6053,7 +6056,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR22">
         <v>1.45</v>
@@ -6465,7 +6468,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ24">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR24">
         <v>1.66</v>
@@ -7286,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ28">
         <v>0.74</v>
@@ -7904,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ31">
         <v>1.11</v>
@@ -10582,7 +10585,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ44">
         <v>1.06</v>
@@ -12024,7 +12027,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ51">
         <v>0.72</v>
@@ -13057,7 +13060,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -13881,7 +13884,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR60">
         <v>2.36</v>
@@ -15114,7 +15117,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ66">
         <v>1.06</v>
@@ -15526,7 +15529,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ68">
         <v>1.56</v>
@@ -16144,7 +16147,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ71">
         <v>0.79</v>
@@ -17177,7 +17180,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -18001,7 +18004,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -21294,7 +21297,7 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ96">
         <v>0.67</v>
@@ -23148,7 +23151,7 @@
         <v>0.4</v>
       </c>
       <c r="AP105">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ105">
         <v>0.5</v>
@@ -23357,7 +23360,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ106">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR106">
         <v>1.13</v>
@@ -23563,7 +23566,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ107">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR107">
         <v>1.73</v>
@@ -23972,7 +23975,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ109">
         <v>1.42</v>
@@ -25417,7 +25420,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ116">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR116">
         <v>1.94</v>
@@ -26444,7 +26447,7 @@
         <v>1.4</v>
       </c>
       <c r="AP121">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ121">
         <v>1.42</v>
@@ -26650,7 +26653,7 @@
         <v>0.2</v>
       </c>
       <c r="AP122">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ122">
         <v>0.68</v>
@@ -27889,7 +27892,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ128">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR128">
         <v>1.66</v>
@@ -28298,7 +28301,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ130">
         <v>1.56</v>
@@ -30564,7 +30567,7 @@
         <v>0.5</v>
       </c>
       <c r="AP141">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ141">
         <v>0.72</v>
@@ -31185,7 +31188,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR144">
         <v>1.37</v>
@@ -31597,7 +31600,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ146">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -34272,7 +34275,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ159">
         <v>0.39</v>
@@ -35099,7 +35102,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ163">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -35305,7 +35308,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ164">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR164">
         <v>1.32</v>
@@ -36332,7 +36335,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ169">
         <v>1.06</v>
@@ -38395,7 +38398,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ179">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -38804,7 +38807,7 @@
         <v>0.38</v>
       </c>
       <c r="AP181">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ181">
         <v>0.79</v>
@@ -39219,7 +39222,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ183">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR183">
         <v>1.53</v>
@@ -40246,7 +40249,7 @@
         <v>0.25</v>
       </c>
       <c r="AP188">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ188">
         <v>0.42</v>
@@ -43133,7 +43136,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ202">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR202">
         <v>1.53</v>
@@ -43545,7 +43548,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ204">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR204">
         <v>1.94</v>
@@ -43748,7 +43751,7 @@
         <v>0.9</v>
       </c>
       <c r="AP205">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ205">
         <v>1.11</v>
@@ -44366,7 +44369,7 @@
         <v>1</v>
       </c>
       <c r="AP208">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ208">
         <v>0.89</v>
@@ -47253,7 +47256,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ222">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR222">
         <v>1.32</v>
@@ -47868,7 +47871,7 @@
         <v>1.82</v>
       </c>
       <c r="AP225">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ225">
         <v>1.56</v>
@@ -48283,7 +48286,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ227">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR227">
         <v>1.68</v>
@@ -49107,7 +49110,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ231">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR231">
         <v>1.41</v>
@@ -50137,7 +50140,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ236">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR236">
         <v>1.41</v>
@@ -51576,7 +51579,7 @@
         <v>1.27</v>
       </c>
       <c r="AP243">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ243">
         <v>1.17</v>
@@ -52194,7 +52197,7 @@
         <v>0.75</v>
       </c>
       <c r="AP246">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ246">
         <v>1.11</v>
@@ -53021,7 +53024,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ250">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR250">
         <v>1.59</v>
@@ -54051,7 +54054,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ255">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR255">
         <v>1.86</v>
@@ -56726,7 +56729,7 @@
         <v>1.46</v>
       </c>
       <c r="AP268">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ268">
         <v>1.56</v>
@@ -57347,7 +57350,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ271">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR271">
         <v>1.52</v>
@@ -57550,7 +57553,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP272">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ272">
         <v>0.67</v>
@@ -58583,7 +58586,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ277">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR277">
         <v>1.47</v>
@@ -58786,7 +58789,7 @@
         <v>0.31</v>
       </c>
       <c r="AP278">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ278">
         <v>0.74</v>
@@ -59198,7 +59201,7 @@
         <v>0.43</v>
       </c>
       <c r="AP280">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ280">
         <v>0.39</v>
@@ -60231,7 +60234,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ285">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR285">
         <v>1.43</v>
@@ -60849,7 +60852,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ288">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR288">
         <v>1.71</v>
@@ -63112,7 +63115,7 @@
         <v>0.36</v>
       </c>
       <c r="AP299">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ299">
         <v>0.42</v>
@@ -63733,7 +63736,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ302">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR302">
         <v>1.3</v>
@@ -63936,7 +63939,7 @@
         <v>0.6</v>
       </c>
       <c r="AP303">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ303">
         <v>0.5</v>
@@ -64348,7 +64351,7 @@
         <v>1</v>
       </c>
       <c r="AP305">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ305">
         <v>1.17</v>
@@ -66205,7 +66208,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ314">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR314">
         <v>1.45</v>
@@ -68265,7 +68268,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ324">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR324">
         <v>1.48</v>
@@ -69086,7 +69089,7 @@
         <v>0.44</v>
       </c>
       <c r="AP328">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ328">
         <v>0.68</v>
@@ -69295,7 +69298,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ329">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR329">
         <v>1.56</v>
@@ -70322,7 +70325,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP334">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ334">
         <v>0.89</v>
@@ -72588,10 +72591,10 @@
         <v>1</v>
       </c>
       <c r="AP345">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ345">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR345">
         <v>1.7</v>
@@ -73415,7 +73418,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ349">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR349">
         <v>1.48</v>
@@ -75884,7 +75887,7 @@
         <v>0.88</v>
       </c>
       <c r="AP361">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ361">
         <v>1</v>
@@ -77611,6 +77614,418 @@
       </c>
       <c r="BP369">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="370" spans="1:68">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>7380695</v>
+      </c>
+      <c r="C370" t="s">
+        <v>68</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45614.875</v>
+      </c>
+      <c r="F370">
+        <v>37</v>
+      </c>
+      <c r="G370" t="s">
+        <v>70</v>
+      </c>
+      <c r="H370" t="s">
+        <v>82</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>1</v>
+      </c>
+      <c r="M370">
+        <v>3</v>
+      </c>
+      <c r="N370">
+        <v>4</v>
+      </c>
+      <c r="O370" t="s">
+        <v>193</v>
+      </c>
+      <c r="P370" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q370">
+        <v>3.5</v>
+      </c>
+      <c r="R370">
+        <v>1.8</v>
+      </c>
+      <c r="S370">
+        <v>4.33</v>
+      </c>
+      <c r="T370">
+        <v>1.57</v>
+      </c>
+      <c r="U370">
+        <v>2.25</v>
+      </c>
+      <c r="V370">
+        <v>3.75</v>
+      </c>
+      <c r="W370">
+        <v>1.25</v>
+      </c>
+      <c r="X370">
+        <v>13</v>
+      </c>
+      <c r="Y370">
+        <v>1.04</v>
+      </c>
+      <c r="Z370">
+        <v>2</v>
+      </c>
+      <c r="AA370">
+        <v>2.99</v>
+      </c>
+      <c r="AB370">
+        <v>3.7</v>
+      </c>
+      <c r="AC370">
+        <v>1.1</v>
+      </c>
+      <c r="AD370">
+        <v>6.5</v>
+      </c>
+      <c r="AE370">
+        <v>1.53</v>
+      </c>
+      <c r="AF370">
+        <v>2.25</v>
+      </c>
+      <c r="AG370">
+        <v>2.59</v>
+      </c>
+      <c r="AH370">
+        <v>1.44</v>
+      </c>
+      <c r="AI370">
+        <v>2.38</v>
+      </c>
+      <c r="AJ370">
+        <v>1.53</v>
+      </c>
+      <c r="AK370">
+        <v>1.22</v>
+      </c>
+      <c r="AL370">
+        <v>1.28</v>
+      </c>
+      <c r="AM370">
+        <v>1.75</v>
+      </c>
+      <c r="AN370">
+        <v>1.28</v>
+      </c>
+      <c r="AO370">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP370">
+        <v>1.21</v>
+      </c>
+      <c r="AQ370">
+        <v>1.05</v>
+      </c>
+      <c r="AR370">
+        <v>1.22</v>
+      </c>
+      <c r="AS370">
+        <v>1.11</v>
+      </c>
+      <c r="AT370">
+        <v>2.33</v>
+      </c>
+      <c r="AU370">
+        <v>6</v>
+      </c>
+      <c r="AV370">
+        <v>7</v>
+      </c>
+      <c r="AW370">
+        <v>1</v>
+      </c>
+      <c r="AX370">
+        <v>5</v>
+      </c>
+      <c r="AY370">
+        <v>8</v>
+      </c>
+      <c r="AZ370">
+        <v>15</v>
+      </c>
+      <c r="BA370">
+        <v>3</v>
+      </c>
+      <c r="BB370">
+        <v>9</v>
+      </c>
+      <c r="BC370">
+        <v>12</v>
+      </c>
+      <c r="BD370">
+        <v>1.62</v>
+      </c>
+      <c r="BE370">
+        <v>8.1</v>
+      </c>
+      <c r="BF370">
+        <v>2.86</v>
+      </c>
+      <c r="BG370">
+        <v>1.18</v>
+      </c>
+      <c r="BH370">
+        <v>4.6</v>
+      </c>
+      <c r="BI370">
+        <v>1.34</v>
+      </c>
+      <c r="BJ370">
+        <v>3.1</v>
+      </c>
+      <c r="BK370">
+        <v>2</v>
+      </c>
+      <c r="BL370">
+        <v>2.23</v>
+      </c>
+      <c r="BM370">
+        <v>2.02</v>
+      </c>
+      <c r="BN370">
+        <v>1.74</v>
+      </c>
+      <c r="BO370">
+        <v>2.65</v>
+      </c>
+      <c r="BP370">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="371" spans="1:68">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>7380702</v>
+      </c>
+      <c r="C371" t="s">
+        <v>68</v>
+      </c>
+      <c r="D371" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45614.90625</v>
+      </c>
+      <c r="F371">
+        <v>37</v>
+      </c>
+      <c r="G371" t="s">
+        <v>76</v>
+      </c>
+      <c r="H371" t="s">
+        <v>86</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
+      <c r="L371">
+        <v>1</v>
+      </c>
+      <c r="M371">
+        <v>0</v>
+      </c>
+      <c r="N371">
+        <v>1</v>
+      </c>
+      <c r="O371" t="s">
+        <v>303</v>
+      </c>
+      <c r="P371" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q371">
+        <v>2.1</v>
+      </c>
+      <c r="R371">
+        <v>2.3</v>
+      </c>
+      <c r="S371">
+        <v>6</v>
+      </c>
+      <c r="T371">
+        <v>1.39</v>
+      </c>
+      <c r="U371">
+        <v>2.96</v>
+      </c>
+      <c r="V371">
+        <v>2.96</v>
+      </c>
+      <c r="W371">
+        <v>1.39</v>
+      </c>
+      <c r="X371">
+        <v>6.7</v>
+      </c>
+      <c r="Y371">
+        <v>1.09</v>
+      </c>
+      <c r="Z371">
+        <v>1.63</v>
+      </c>
+      <c r="AA371">
+        <v>3.65</v>
+      </c>
+      <c r="AB371">
+        <v>4.7</v>
+      </c>
+      <c r="AC371">
+        <v>1.03</v>
+      </c>
+      <c r="AD371">
+        <v>9</v>
+      </c>
+      <c r="AE371">
+        <v>1.25</v>
+      </c>
+      <c r="AF371">
+        <v>3.6</v>
+      </c>
+      <c r="AG371">
+        <v>1.96</v>
+      </c>
+      <c r="AH371">
+        <v>1.86</v>
+      </c>
+      <c r="AI371">
+        <v>1.83</v>
+      </c>
+      <c r="AJ371">
+        <v>1.83</v>
+      </c>
+      <c r="AK371">
+        <v>1.17</v>
+      </c>
+      <c r="AL371">
+        <v>1.26</v>
+      </c>
+      <c r="AM371">
+        <v>2.07</v>
+      </c>
+      <c r="AN371">
+        <v>2.33</v>
+      </c>
+      <c r="AO371">
+        <v>0.72</v>
+      </c>
+      <c r="AP371">
+        <v>2.37</v>
+      </c>
+      <c r="AQ371">
+        <v>0.68</v>
+      </c>
+      <c r="AR371">
+        <v>1.68</v>
+      </c>
+      <c r="AS371">
+        <v>1.21</v>
+      </c>
+      <c r="AT371">
+        <v>2.89</v>
+      </c>
+      <c r="AU371">
+        <v>7</v>
+      </c>
+      <c r="AV371">
+        <v>0</v>
+      </c>
+      <c r="AW371">
+        <v>7</v>
+      </c>
+      <c r="AX371">
+        <v>4</v>
+      </c>
+      <c r="AY371">
+        <v>17</v>
+      </c>
+      <c r="AZ371">
+        <v>9</v>
+      </c>
+      <c r="BA371">
+        <v>8</v>
+      </c>
+      <c r="BB371">
+        <v>3</v>
+      </c>
+      <c r="BC371">
+        <v>11</v>
+      </c>
+      <c r="BD371">
+        <v>1.32</v>
+      </c>
+      <c r="BE371">
+        <v>10.5</v>
+      </c>
+      <c r="BF371">
+        <v>3.96</v>
+      </c>
+      <c r="BG371">
+        <v>1.13</v>
+      </c>
+      <c r="BH371">
+        <v>4.8</v>
+      </c>
+      <c r="BI371">
+        <v>1.23</v>
+      </c>
+      <c r="BJ371">
+        <v>3.28</v>
+      </c>
+      <c r="BK371">
+        <v>1.44</v>
+      </c>
+      <c r="BL371">
+        <v>2.43</v>
+      </c>
+      <c r="BM371">
+        <v>1.79</v>
+      </c>
+      <c r="BN371">
+        <v>1.92</v>
+      </c>
+      <c r="BO371">
+        <v>2.21</v>
+      </c>
+      <c r="BP371">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -940,10 +940,13 @@
     <t>['59', '66']</t>
   </si>
   <si>
-    <t>['31', '49', '69']</t>
+    <t>['59']</t>
   </si>
   <si>
-    <t>['59']</t>
+    <t>['43', '64']</t>
+  </si>
+  <si>
+    <t>['31', '49', '69']</t>
   </si>
   <si>
     <t>['50']</t>
@@ -1235,6 +1238,9 @@
   </si>
   <si>
     <t>['60', '89', '90+4']</t>
+  </si>
+  <si>
+    <t>['28', '42', '53']</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP371"/>
+  <dimension ref="A1:BP374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2885,7 +2891,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -3297,7 +3303,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3709,7 +3715,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -4121,7 +4127,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -4199,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -4327,7 +4333,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4405,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ14">
         <v>1.56</v>
@@ -4533,7 +4539,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4820,7 +4826,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5026,7 +5032,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5435,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ19">
         <v>0.39</v>
@@ -5644,7 +5650,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5769,7 +5775,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6259,7 +6265,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ23">
         <v>1.42</v>
@@ -6387,7 +6393,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6799,7 +6805,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6877,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ26">
         <v>1.56</v>
@@ -7005,7 +7011,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -7211,7 +7217,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7498,7 +7504,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ29">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -8035,7 +8041,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -8241,7 +8247,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8940,7 +8946,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR36">
         <v>3.34</v>
@@ -9146,7 +9152,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -9477,7 +9483,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9761,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ40">
         <v>0.79</v>
@@ -9889,7 +9895,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -10095,7 +10101,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10301,7 +10307,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10379,7 +10385,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ43">
         <v>0.74</v>
@@ -10791,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ45">
         <v>0.42</v>
@@ -11203,7 +11209,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ47">
         <v>1.42</v>
@@ -11537,7 +11543,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12030,7 +12036,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ51">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12854,7 +12860,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ55">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12979,7 +12985,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13803,7 +13809,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -14090,7 +14096,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -14215,7 +14221,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14705,10 +14711,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14833,7 +14839,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15323,7 +15329,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ67">
         <v>1.17</v>
@@ -15735,7 +15741,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ69">
         <v>1.11</v>
@@ -16687,7 +16693,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17177,7 +17183,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ76">
         <v>1.05</v>
@@ -17305,7 +17311,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17386,7 +17392,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ77">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -17592,7 +17598,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ78">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR78">
         <v>1.62</v>
@@ -18129,7 +18135,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -18207,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ81">
         <v>0.68</v>
@@ -18335,7 +18341,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -19031,7 +19037,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ85">
         <v>1.06</v>
@@ -19240,7 +19246,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR86">
         <v>1.95</v>
@@ -19365,7 +19371,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -20395,7 +20401,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20473,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ92">
         <v>0.42</v>
@@ -21013,7 +21019,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21091,7 +21097,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ95">
         <v>0.89</v>
@@ -21631,7 +21637,7 @@
         <v>117</v>
       </c>
       <c r="P98" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -22043,7 +22049,7 @@
         <v>101</v>
       </c>
       <c r="P100" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -22249,7 +22255,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22536,7 +22542,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ102">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -23154,7 +23160,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ105">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR105">
         <v>1.54</v>
@@ -23563,7 +23569,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ107">
         <v>0.68</v>
@@ -24390,7 +24396,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ111">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24593,7 +24599,7 @@
         <v>0.2</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ112">
         <v>0.39</v>
@@ -24721,7 +24727,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -25133,7 +25139,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25339,7 +25345,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -26241,7 +26247,7 @@
         <v>0.2</v>
       </c>
       <c r="AP120">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -26575,7 +26581,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26859,10 +26865,10 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ123">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -27193,7 +27199,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27274,7 +27280,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27605,7 +27611,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -28510,7 +28516,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ131">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR131">
         <v>1.13</v>
@@ -28841,7 +28847,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -29125,7 +29131,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ134">
         <v>0.89</v>
@@ -29253,7 +29259,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29331,10 +29337,10 @@
         <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ135">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR135">
         <v>1.41</v>
@@ -29665,7 +29671,7 @@
         <v>101</v>
       </c>
       <c r="P137" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29743,7 +29749,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ137">
         <v>1.56</v>
@@ -29871,7 +29877,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -30283,7 +30289,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30489,7 +30495,7 @@
         <v>101</v>
       </c>
       <c r="P141" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30570,7 +30576,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ141">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR141">
         <v>1.42</v>
@@ -30695,7 +30701,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30901,7 +30907,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -32137,7 +32143,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32218,7 +32224,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ149">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR149">
         <v>1.56</v>
@@ -33039,7 +33045,7 @@
         <v>0.57</v>
       </c>
       <c r="AP153">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -33245,7 +33251,7 @@
         <v>0.38</v>
       </c>
       <c r="AP154">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ154">
         <v>1.11</v>
@@ -33454,7 +33460,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ155">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR155">
         <v>1.76</v>
@@ -33866,7 +33872,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ157">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR157">
         <v>1.2</v>
@@ -33991,7 +33997,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -34197,7 +34203,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -35305,7 +35311,7 @@
         <v>0.86</v>
       </c>
       <c r="AP164">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ164">
         <v>0.68</v>
@@ -36051,7 +36057,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36257,7 +36263,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -36338,7 +36344,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ169">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR169">
         <v>1.76</v>
@@ -36541,7 +36547,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ170">
         <v>0.67</v>
@@ -36747,7 +36753,7 @@
         <v>1.22</v>
       </c>
       <c r="AP171">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ171">
         <v>1.06</v>
@@ -37162,7 +37168,7 @@
         <v>2</v>
       </c>
       <c r="AQ173">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR173">
         <v>1.42</v>
@@ -37493,7 +37499,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37699,7 +37705,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37905,7 +37911,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -38111,7 +38117,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38189,10 +38195,10 @@
         <v>0.88</v>
       </c>
       <c r="AP178">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ178">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR178">
         <v>1.35</v>
@@ -38523,7 +38529,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -39553,7 +39559,7 @@
         <v>209</v>
       </c>
       <c r="P185" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39759,7 +39765,7 @@
         <v>101</v>
       </c>
       <c r="P186" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39965,7 +39971,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -40455,7 +40461,7 @@
         <v>1.22</v>
       </c>
       <c r="AP189">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ189">
         <v>1.17</v>
@@ -40583,7 +40589,7 @@
         <v>101</v>
       </c>
       <c r="P190" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40995,7 +41001,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -41076,7 +41082,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ192">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR192">
         <v>1.67</v>
@@ -41201,7 +41207,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q193">
         <v>2.2</v>
@@ -41282,7 +41288,7 @@
         <v>2</v>
       </c>
       <c r="AQ193">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR193">
         <v>1.45</v>
@@ -41485,7 +41491,7 @@
         <v>1.1</v>
       </c>
       <c r="AP194">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ194">
         <v>1.06</v>
@@ -41691,10 +41697,10 @@
         <v>0.4</v>
       </c>
       <c r="AP195">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ195">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR195">
         <v>1.74</v>
@@ -42231,7 +42237,7 @@
         <v>219</v>
       </c>
       <c r="P198" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42437,7 +42443,7 @@
         <v>193</v>
       </c>
       <c r="P199" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q199">
         <v>2.3</v>
@@ -43261,7 +43267,7 @@
         <v>101</v>
       </c>
       <c r="P203" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43673,7 +43679,7 @@
         <v>151</v>
       </c>
       <c r="P205" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -44085,7 +44091,7 @@
         <v>101</v>
       </c>
       <c r="P207" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44291,7 +44297,7 @@
         <v>96</v>
       </c>
       <c r="P208" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q208">
         <v>3.4</v>
@@ -44784,7 +44790,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ210">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR210">
         <v>1.55</v>
@@ -44909,7 +44915,7 @@
         <v>226</v>
       </c>
       <c r="P211" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -45115,7 +45121,7 @@
         <v>184</v>
       </c>
       <c r="P212" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q212">
         <v>2.5</v>
@@ -45196,7 +45202,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ212">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR212">
         <v>1.43</v>
@@ -45733,7 +45739,7 @@
         <v>101</v>
       </c>
       <c r="P215" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q215">
         <v>3.4</v>
@@ -46223,7 +46229,7 @@
         <v>1</v>
       </c>
       <c r="AP217">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ217">
         <v>0.89</v>
@@ -46844,7 +46850,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ220">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR220">
         <v>1.9</v>
@@ -47047,7 +47053,7 @@
         <v>0.82</v>
       </c>
       <c r="AP221">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ221">
         <v>1.11</v>
@@ -48283,7 +48289,7 @@
         <v>1.3</v>
       </c>
       <c r="AP227">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ227">
         <v>1.05</v>
@@ -48411,7 +48417,7 @@
         <v>232</v>
       </c>
       <c r="P228" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q228">
         <v>1.95</v>
@@ -48492,7 +48498,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ228">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR228">
         <v>1.85</v>
@@ -48904,7 +48910,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ230">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR230">
         <v>1.59</v>
@@ -49029,7 +49035,7 @@
         <v>184</v>
       </c>
       <c r="P231" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q231">
         <v>3.4</v>
@@ -49647,7 +49653,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q234">
         <v>2.1</v>
@@ -50758,7 +50764,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ239">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR239">
         <v>1.44</v>
@@ -50883,7 +50889,7 @@
         <v>101</v>
       </c>
       <c r="P240" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q240">
         <v>6.5</v>
@@ -51089,7 +51095,7 @@
         <v>239</v>
       </c>
       <c r="P241" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q241">
         <v>3.75</v>
@@ -51167,7 +51173,7 @@
         <v>1.08</v>
       </c>
       <c r="AP241">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ241">
         <v>1.11</v>
@@ -51295,7 +51301,7 @@
         <v>101</v>
       </c>
       <c r="P242" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q242">
         <v>3.2</v>
@@ -51373,7 +51379,7 @@
         <v>1.18</v>
       </c>
       <c r="AP242">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ242">
         <v>1.42</v>
@@ -51913,7 +51919,7 @@
         <v>242</v>
       </c>
       <c r="P245" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q245">
         <v>3</v>
@@ -51991,7 +51997,7 @@
         <v>1.67</v>
       </c>
       <c r="AP245">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ245">
         <v>1.56</v>
@@ -52325,7 +52331,7 @@
         <v>101</v>
       </c>
       <c r="P247" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q247">
         <v>2.75</v>
@@ -52818,7 +52824,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ249">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR249">
         <v>1.5</v>
@@ -52943,7 +52949,7 @@
         <v>244</v>
       </c>
       <c r="P250" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q250">
         <v>3</v>
@@ -53149,7 +53155,7 @@
         <v>167</v>
       </c>
       <c r="P251" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53848,7 +53854,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ254">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR254">
         <v>1.4</v>
@@ -55081,7 +55087,7 @@
         <v>0.54</v>
       </c>
       <c r="AP260">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ260">
         <v>0.68</v>
@@ -55415,7 +55421,7 @@
         <v>254</v>
       </c>
       <c r="P262" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q262">
         <v>2.38</v>
@@ -55621,7 +55627,7 @@
         <v>255</v>
       </c>
       <c r="P263" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -56111,7 +56117,7 @@
         <v>0.92</v>
       </c>
       <c r="AP265">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ265">
         <v>1</v>
@@ -56526,7 +56532,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ267">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR267">
         <v>1.39</v>
@@ -56857,7 +56863,7 @@
         <v>101</v>
       </c>
       <c r="P269" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q269">
         <v>2.75</v>
@@ -57063,7 +57069,7 @@
         <v>101</v>
       </c>
       <c r="P270" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -57141,7 +57147,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP270">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ270">
         <v>0.79</v>
@@ -58174,7 +58180,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ275">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR275">
         <v>1.13</v>
@@ -58505,7 +58511,7 @@
         <v>101</v>
       </c>
       <c r="P277" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q277">
         <v>4.5</v>
@@ -58998,7 +59004,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ279">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR279">
         <v>1.47</v>
@@ -59407,7 +59413,7 @@
         <v>0.71</v>
       </c>
       <c r="AP281">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ281">
         <v>1.11</v>
@@ -59741,7 +59747,7 @@
         <v>263</v>
       </c>
       <c r="P283" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q283">
         <v>2.4</v>
@@ -59822,7 +59828,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ283">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR283">
         <v>1.35</v>
@@ -60646,7 +60652,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ287">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR287">
         <v>1.44</v>
@@ -60977,7 +60983,7 @@
         <v>267</v>
       </c>
       <c r="P289" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q289">
         <v>2.63</v>
@@ -61389,7 +61395,7 @@
         <v>269</v>
       </c>
       <c r="P291" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q291">
         <v>2.63</v>
@@ -61879,7 +61885,7 @@
         <v>0.4</v>
       </c>
       <c r="AP293">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ293">
         <v>0.39</v>
@@ -62088,7 +62094,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ294">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR294">
         <v>1.46</v>
@@ -62291,7 +62297,7 @@
         <v>0.38</v>
       </c>
       <c r="AP295">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ295">
         <v>0.42</v>
@@ -62831,7 +62837,7 @@
         <v>271</v>
       </c>
       <c r="P298" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q298">
         <v>3.75</v>
@@ -63037,7 +63043,7 @@
         <v>272</v>
       </c>
       <c r="P299" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q299">
         <v>3.4</v>
@@ -63449,7 +63455,7 @@
         <v>274</v>
       </c>
       <c r="P301" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q301">
         <v>3.2</v>
@@ -63655,7 +63661,7 @@
         <v>275</v>
       </c>
       <c r="P302" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q302">
         <v>3.5</v>
@@ -63733,7 +63739,7 @@
         <v>0.8</v>
       </c>
       <c r="AP302">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ302">
         <v>0.68</v>
@@ -63942,7 +63948,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ303">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR303">
         <v>1.7</v>
@@ -64067,7 +64073,7 @@
         <v>276</v>
       </c>
       <c r="P304" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q304">
         <v>2.38</v>
@@ -64557,10 +64563,10 @@
         <v>0.86</v>
       </c>
       <c r="AP306">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ306">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR306">
         <v>1.7</v>
@@ -65303,7 +65309,7 @@
         <v>280</v>
       </c>
       <c r="P310" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q310">
         <v>4.33</v>
@@ -65509,7 +65515,7 @@
         <v>264</v>
       </c>
       <c r="P311" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q311">
         <v>2.2</v>
@@ -65715,7 +65721,7 @@
         <v>281</v>
       </c>
       <c r="P312" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q312">
         <v>2.4</v>
@@ -65921,7 +65927,7 @@
         <v>254</v>
       </c>
       <c r="P313" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q313">
         <v>3.2</v>
@@ -66333,7 +66339,7 @@
         <v>101</v>
       </c>
       <c r="P315" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q315">
         <v>2.88</v>
@@ -66745,7 +66751,7 @@
         <v>97</v>
       </c>
       <c r="P317" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -66823,7 +66829,7 @@
         <v>0.8</v>
       </c>
       <c r="AP317">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ317">
         <v>1</v>
@@ -67444,7 +67450,7 @@
         <v>2</v>
       </c>
       <c r="AQ320">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR320">
         <v>1.42</v>
@@ -67569,7 +67575,7 @@
         <v>101</v>
       </c>
       <c r="P321" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q321">
         <v>3.4</v>
@@ -68474,7 +68480,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ325">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR325">
         <v>1.36</v>
@@ -69011,7 +69017,7 @@
         <v>101</v>
       </c>
       <c r="P328" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q328">
         <v>2.75</v>
@@ -69707,7 +69713,7 @@
         <v>0.75</v>
       </c>
       <c r="AP331">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ331">
         <v>0.67</v>
@@ -69916,7 +69922,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ332">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR332">
         <v>1.51</v>
@@ -70122,7 +70128,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ333">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR333">
         <v>1.33</v>
@@ -70531,7 +70537,7 @@
         <v>0.5</v>
       </c>
       <c r="AP335">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ335">
         <v>0.74</v>
@@ -70659,7 +70665,7 @@
         <v>101</v>
       </c>
       <c r="P336" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -70737,7 +70743,7 @@
         <v>1.38</v>
       </c>
       <c r="AP336">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ336">
         <v>1.56</v>
@@ -71071,7 +71077,7 @@
         <v>101</v>
       </c>
       <c r="P338" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q338">
         <v>3</v>
@@ -71483,7 +71489,7 @@
         <v>101</v>
       </c>
       <c r="P340" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q340">
         <v>2.5</v>
@@ -71564,7 +71570,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ340">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR340">
         <v>1.45</v>
@@ -71689,7 +71695,7 @@
         <v>101</v>
       </c>
       <c r="P341" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q341">
         <v>4</v>
@@ -72101,7 +72107,7 @@
         <v>101</v>
       </c>
       <c r="P343" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q343">
         <v>4</v>
@@ -72925,7 +72931,7 @@
         <v>298</v>
       </c>
       <c r="P347" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q347">
         <v>3.2</v>
@@ -73131,7 +73137,7 @@
         <v>152</v>
       </c>
       <c r="P348" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q348">
         <v>3.25</v>
@@ -73209,7 +73215,7 @@
         <v>0.47</v>
       </c>
       <c r="AP348">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ348">
         <v>0.74</v>
@@ -73624,7 +73630,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ350">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR350">
         <v>1.25</v>
@@ -74651,7 +74657,7 @@
         <v>1.12</v>
       </c>
       <c r="AP355">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AQ355">
         <v>1.11</v>
@@ -74860,7 +74866,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ356">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR356">
         <v>1.38</v>
@@ -75191,7 +75197,7 @@
         <v>101</v>
       </c>
       <c r="P358" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q358">
         <v>4</v>
@@ -75269,7 +75275,7 @@
         <v>1.47</v>
       </c>
       <c r="AP358">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ358">
         <v>1.56</v>
@@ -75397,7 +75403,7 @@
         <v>302</v>
       </c>
       <c r="P359" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q359">
         <v>2</v>
@@ -75684,7 +75690,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ360">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR360">
         <v>1.63</v>
@@ -75809,7 +75815,7 @@
         <v>300</v>
       </c>
       <c r="P361" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q361">
         <v>5</v>
@@ -76427,7 +76433,7 @@
         <v>101</v>
       </c>
       <c r="P364" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q364">
         <v>4.5</v>
@@ -76633,7 +76639,7 @@
         <v>305</v>
       </c>
       <c r="P365" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q365">
         <v>2.63</v>
@@ -76839,7 +76845,7 @@
         <v>101</v>
       </c>
       <c r="P366" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q366">
         <v>4.75</v>
@@ -77251,7 +77257,7 @@
         <v>101</v>
       </c>
       <c r="P368" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q368">
         <v>2.25</v>
@@ -77663,7 +77669,7 @@
         <v>193</v>
       </c>
       <c r="P370" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q370">
         <v>3.5</v>
@@ -78026,6 +78032,624 @@
       </c>
       <c r="BP371">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="372" spans="1:68">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>7380710</v>
+      </c>
+      <c r="C372" t="s">
+        <v>68</v>
+      </c>
+      <c r="D372" t="s">
+        <v>69</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45618.79166666666</v>
+      </c>
+      <c r="F372">
+        <v>38</v>
+      </c>
+      <c r="G372" t="s">
+        <v>87</v>
+      </c>
+      <c r="H372" t="s">
+        <v>70</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>2</v>
+      </c>
+      <c r="K372">
+        <v>2</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372">
+        <v>3</v>
+      </c>
+      <c r="N372">
+        <v>4</v>
+      </c>
+      <c r="O372" t="s">
+        <v>308</v>
+      </c>
+      <c r="P372" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q372">
+        <v>2.2</v>
+      </c>
+      <c r="R372">
+        <v>2.1</v>
+      </c>
+      <c r="S372">
+        <v>6.5</v>
+      </c>
+      <c r="T372">
+        <v>1.5</v>
+      </c>
+      <c r="U372">
+        <v>2.5</v>
+      </c>
+      <c r="V372">
+        <v>3.4</v>
+      </c>
+      <c r="W372">
+        <v>1.3</v>
+      </c>
+      <c r="X372">
+        <v>10</v>
+      </c>
+      <c r="Y372">
+        <v>1.06</v>
+      </c>
+      <c r="Z372">
+        <v>1.55</v>
+      </c>
+      <c r="AA372">
+        <v>3.6</v>
+      </c>
+      <c r="AB372">
+        <v>6.5</v>
+      </c>
+      <c r="AC372">
+        <v>1.07</v>
+      </c>
+      <c r="AD372">
+        <v>8</v>
+      </c>
+      <c r="AE372">
+        <v>1.49</v>
+      </c>
+      <c r="AF372">
+        <v>2.45</v>
+      </c>
+      <c r="AG372">
+        <v>2.15</v>
+      </c>
+      <c r="AH372">
+        <v>1.67</v>
+      </c>
+      <c r="AI372">
+        <v>2.2</v>
+      </c>
+      <c r="AJ372">
+        <v>1.62</v>
+      </c>
+      <c r="AK372">
+        <v>1.12</v>
+      </c>
+      <c r="AL372">
+        <v>1.2</v>
+      </c>
+      <c r="AM372">
+        <v>2.3</v>
+      </c>
+      <c r="AN372">
+        <v>1.94</v>
+      </c>
+      <c r="AO372">
+        <v>1.06</v>
+      </c>
+      <c r="AP372">
+        <v>1.84</v>
+      </c>
+      <c r="AQ372">
+        <v>1.16</v>
+      </c>
+      <c r="AR372">
+        <v>1.71</v>
+      </c>
+      <c r="AS372">
+        <v>1.23</v>
+      </c>
+      <c r="AT372">
+        <v>2.94</v>
+      </c>
+      <c r="AU372">
+        <v>8</v>
+      </c>
+      <c r="AV372">
+        <v>6</v>
+      </c>
+      <c r="AW372">
+        <v>5</v>
+      </c>
+      <c r="AX372">
+        <v>6</v>
+      </c>
+      <c r="AY372">
+        <v>17</v>
+      </c>
+      <c r="AZ372">
+        <v>16</v>
+      </c>
+      <c r="BA372">
+        <v>11</v>
+      </c>
+      <c r="BB372">
+        <v>5</v>
+      </c>
+      <c r="BC372">
+        <v>16</v>
+      </c>
+      <c r="BD372">
+        <v>1.5</v>
+      </c>
+      <c r="BE372">
+        <v>8</v>
+      </c>
+      <c r="BF372">
+        <v>3.34</v>
+      </c>
+      <c r="BG372">
+        <v>1.2</v>
+      </c>
+      <c r="BH372">
+        <v>4.25</v>
+      </c>
+      <c r="BI372">
+        <v>1.38</v>
+      </c>
+      <c r="BJ372">
+        <v>2.9</v>
+      </c>
+      <c r="BK372">
+        <v>2.1</v>
+      </c>
+      <c r="BL372">
+        <v>2.12</v>
+      </c>
+      <c r="BM372">
+        <v>2.12</v>
+      </c>
+      <c r="BN372">
+        <v>1.67</v>
+      </c>
+      <c r="BO372">
+        <v>2.85</v>
+      </c>
+      <c r="BP372">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="373" spans="1:68">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>7380708</v>
+      </c>
+      <c r="C373" t="s">
+        <v>68</v>
+      </c>
+      <c r="D373" t="s">
+        <v>69</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45618.83333333334</v>
+      </c>
+      <c r="F373">
+        <v>38</v>
+      </c>
+      <c r="G373" t="s">
+        <v>82</v>
+      </c>
+      <c r="H373" t="s">
+        <v>77</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>1</v>
+      </c>
+      <c r="L373">
+        <v>2</v>
+      </c>
+      <c r="M373">
+        <v>1</v>
+      </c>
+      <c r="N373">
+        <v>3</v>
+      </c>
+      <c r="O373" t="s">
+        <v>309</v>
+      </c>
+      <c r="P373" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q373">
+        <v>2.2</v>
+      </c>
+      <c r="R373">
+        <v>2.2</v>
+      </c>
+      <c r="S373">
+        <v>6.5</v>
+      </c>
+      <c r="T373">
+        <v>1.53</v>
+      </c>
+      <c r="U373">
+        <v>2.38</v>
+      </c>
+      <c r="V373">
+        <v>3.5</v>
+      </c>
+      <c r="W373">
+        <v>1.29</v>
+      </c>
+      <c r="X373">
+        <v>11</v>
+      </c>
+      <c r="Y373">
+        <v>1.05</v>
+      </c>
+      <c r="Z373">
+        <v>1.57</v>
+      </c>
+      <c r="AA373">
+        <v>3.6</v>
+      </c>
+      <c r="AB373">
+        <v>6.5</v>
+      </c>
+      <c r="AC373">
+        <v>1.09</v>
+      </c>
+      <c r="AD373">
+        <v>7</v>
+      </c>
+      <c r="AE373">
+        <v>1.48</v>
+      </c>
+      <c r="AF373">
+        <v>2.65</v>
+      </c>
+      <c r="AG373">
+        <v>2.08</v>
+      </c>
+      <c r="AH373">
+        <v>1.73</v>
+      </c>
+      <c r="AI373">
+        <v>2.1</v>
+      </c>
+      <c r="AJ373">
+        <v>1.67</v>
+      </c>
+      <c r="AK373">
+        <v>1.14</v>
+      </c>
+      <c r="AL373">
+        <v>1.25</v>
+      </c>
+      <c r="AM373">
+        <v>2.1</v>
+      </c>
+      <c r="AN373">
+        <v>1.67</v>
+      </c>
+      <c r="AO373">
+        <v>0.5</v>
+      </c>
+      <c r="AP373">
+        <v>1.74</v>
+      </c>
+      <c r="AQ373">
+        <v>0.47</v>
+      </c>
+      <c r="AR373">
+        <v>1.33</v>
+      </c>
+      <c r="AS373">
+        <v>1.19</v>
+      </c>
+      <c r="AT373">
+        <v>2.52</v>
+      </c>
+      <c r="AU373">
+        <v>4</v>
+      </c>
+      <c r="AV373">
+        <v>4</v>
+      </c>
+      <c r="AW373">
+        <v>8</v>
+      </c>
+      <c r="AX373">
+        <v>4</v>
+      </c>
+      <c r="AY373">
+        <v>16</v>
+      </c>
+      <c r="AZ373">
+        <v>11</v>
+      </c>
+      <c r="BA373">
+        <v>9</v>
+      </c>
+      <c r="BB373">
+        <v>7</v>
+      </c>
+      <c r="BC373">
+        <v>16</v>
+      </c>
+      <c r="BD373">
+        <v>1.62</v>
+      </c>
+      <c r="BE373">
+        <v>9.1</v>
+      </c>
+      <c r="BF373">
+        <v>2.76</v>
+      </c>
+      <c r="BG373">
+        <v>1.2</v>
+      </c>
+      <c r="BH373">
+        <v>4.25</v>
+      </c>
+      <c r="BI373">
+        <v>1.38</v>
+      </c>
+      <c r="BJ373">
+        <v>2.9</v>
+      </c>
+      <c r="BK373">
+        <v>2.1</v>
+      </c>
+      <c r="BL373">
+        <v>2.12</v>
+      </c>
+      <c r="BM373">
+        <v>2.12</v>
+      </c>
+      <c r="BN373">
+        <v>1.67</v>
+      </c>
+      <c r="BO373">
+        <v>2.85</v>
+      </c>
+      <c r="BP373">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="374" spans="1:68">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>7380706</v>
+      </c>
+      <c r="C374" t="s">
+        <v>68</v>
+      </c>
+      <c r="D374" t="s">
+        <v>69</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45618.89583333334</v>
+      </c>
+      <c r="F374">
+        <v>38</v>
+      </c>
+      <c r="G374" t="s">
+        <v>81</v>
+      </c>
+      <c r="H374" t="s">
+        <v>75</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>0</v>
+      </c>
+      <c r="M374">
+        <v>1</v>
+      </c>
+      <c r="N374">
+        <v>1</v>
+      </c>
+      <c r="O374" t="s">
+        <v>101</v>
+      </c>
+      <c r="P374" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q374">
+        <v>2.6</v>
+      </c>
+      <c r="R374">
+        <v>2.2</v>
+      </c>
+      <c r="S374">
+        <v>4.33</v>
+      </c>
+      <c r="T374">
+        <v>1.44</v>
+      </c>
+      <c r="U374">
+        <v>2.63</v>
+      </c>
+      <c r="V374">
+        <v>3.4</v>
+      </c>
+      <c r="W374">
+        <v>1.3</v>
+      </c>
+      <c r="X374">
+        <v>10</v>
+      </c>
+      <c r="Y374">
+        <v>1.06</v>
+      </c>
+      <c r="Z374">
+        <v>1.95</v>
+      </c>
+      <c r="AA374">
+        <v>3.5</v>
+      </c>
+      <c r="AB374">
+        <v>3.75</v>
+      </c>
+      <c r="AC374">
+        <v>1.06</v>
+      </c>
+      <c r="AD374">
+        <v>8.5</v>
+      </c>
+      <c r="AE374">
+        <v>1.38</v>
+      </c>
+      <c r="AF374">
+        <v>3</v>
+      </c>
+      <c r="AG374">
+        <v>1.95</v>
+      </c>
+      <c r="AH374">
+        <v>1.85</v>
+      </c>
+      <c r="AI374">
+        <v>1.8</v>
+      </c>
+      <c r="AJ374">
+        <v>1.91</v>
+      </c>
+      <c r="AK374">
+        <v>1.36</v>
+      </c>
+      <c r="AL374">
+        <v>1.28</v>
+      </c>
+      <c r="AM374">
+        <v>1.57</v>
+      </c>
+      <c r="AN374">
+        <v>1.33</v>
+      </c>
+      <c r="AO374">
+        <v>0.72</v>
+      </c>
+      <c r="AP374">
+        <v>1.26</v>
+      </c>
+      <c r="AQ374">
+        <v>0.84</v>
+      </c>
+      <c r="AR374">
+        <v>1.29</v>
+      </c>
+      <c r="AS374">
+        <v>1.2</v>
+      </c>
+      <c r="AT374">
+        <v>2.49</v>
+      </c>
+      <c r="AU374">
+        <v>4</v>
+      </c>
+      <c r="AV374">
+        <v>3</v>
+      </c>
+      <c r="AW374">
+        <v>10</v>
+      </c>
+      <c r="AX374">
+        <v>5</v>
+      </c>
+      <c r="AY374">
+        <v>16</v>
+      </c>
+      <c r="AZ374">
+        <v>12</v>
+      </c>
+      <c r="BA374">
+        <v>3</v>
+      </c>
+      <c r="BB374">
+        <v>2</v>
+      </c>
+      <c r="BC374">
+        <v>5</v>
+      </c>
+      <c r="BD374">
+        <v>1.85</v>
+      </c>
+      <c r="BE374">
+        <v>8.6</v>
+      </c>
+      <c r="BF374">
+        <v>2.28</v>
+      </c>
+      <c r="BG374">
+        <v>1.2</v>
+      </c>
+      <c r="BH374">
+        <v>4.25</v>
+      </c>
+      <c r="BI374">
+        <v>1.38</v>
+      </c>
+      <c r="BJ374">
+        <v>2.9</v>
+      </c>
+      <c r="BK374">
+        <v>2.1</v>
+      </c>
+      <c r="BL374">
+        <v>2.12</v>
+      </c>
+      <c r="BM374">
+        <v>2.12</v>
+      </c>
+      <c r="BN374">
+        <v>1.67</v>
+      </c>
+      <c r="BO374">
+        <v>2.85</v>
+      </c>
+      <c r="BP374">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -75621,73 +75621,73 @@
         <v>101</v>
       </c>
       <c r="Q360">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="R360">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S360">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="T360">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="U360">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V360">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W360">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="X360">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y360">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Z360">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA360">
         <v>0</v>
       </c>
       <c r="AB360">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC360">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AD360">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE360">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF360">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AG360">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AH360">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AI360">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AJ360">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AK360">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AL360">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AM360">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AN360">
         <v>1.35</v>
@@ -75738,43 +75738,43 @@
         <v>11</v>
       </c>
       <c r="BD360">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BE360">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="BF360">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="BG360">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BH360">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="BI360">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="BJ360">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="BK360">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BL360">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="BM360">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BN360">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BO360">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BP360">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:68">
@@ -75827,73 +75827,73 @@
         <v>405</v>
       </c>
       <c r="Q361">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R361">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S361">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="T361">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="U361">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V361">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W361">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="X361">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y361">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Z361">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA361">
         <v>0</v>
       </c>
       <c r="AB361">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC361">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AD361">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AE361">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AF361">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AG361">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AH361">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AI361">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AJ361">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AK361">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AL361">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AM361">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AN361">
         <v>1.35</v>
@@ -75944,43 +75944,43 @@
         <v>10</v>
       </c>
       <c r="BD361">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="BE361">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="BF361">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BG361">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BH361">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="BI361">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BJ361">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="BK361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL361">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="BM361">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="BN361">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="BO361">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BP361">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:68">
